--- a/podsumowanie_wynikow.xlsx
+++ b/podsumowanie_wynikow.xlsx
@@ -1,111 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franekb1111\OneDrive\Pulpit\OE\projekt 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0AAACB-A1B0-4DB3-9306-A572DC098D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>config</t>
-  </si>
-  <si>
-    <t>f16_2014_10_min</t>
-  </si>
-  <si>
-    <t>f16_2014_10_max</t>
-  </si>
-  <si>
-    <t>f16_2014_10_avg</t>
-  </si>
-  <si>
-    <t>f16_2014_20_min</t>
-  </si>
-  <si>
-    <t>f16_2014_20_max</t>
-  </si>
-  <si>
-    <t>f16_2014_20_avg</t>
-  </si>
-  <si>
-    <t>f16_2014_30_min</t>
-  </si>
-  <si>
-    <t>f16_2014_30_max</t>
-  </si>
-  <si>
-    <t>f16_2014_30_avg</t>
-  </si>
-  <si>
-    <t>michalewicz10_min</t>
-  </si>
-  <si>
-    <t>michalewicz10_max</t>
-  </si>
-  <si>
-    <t>michalewicz10_avg</t>
-  </si>
-  <si>
-    <t>michalewicz20_min</t>
-  </si>
-  <si>
-    <t>michalewicz20_max</t>
-  </si>
-  <si>
-    <t>michalewicz20_avg</t>
-  </si>
-  <si>
-    <t>michalewicz30_min</t>
-  </si>
-  <si>
-    <t>michalewicz30_max</t>
-  </si>
-  <si>
-    <t>michalewicz30_avg</t>
-  </si>
-  <si>
-    <t>config1</t>
-  </si>
-  <si>
-    <t>config2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -444,209 +420,297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" customWidth="1"/>
-    <col min="16" max="16" width="17" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>config</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f162014_10_min</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f162014_10_max</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f162014_10_avg</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f162014_20_min</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>f162014_20_max</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>f162014_20_avg</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>f162014_30_min</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>f162014_30_max</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>f162014_30_avg</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>michalewicz2_min</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>michalewicz2_max</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>michalewicz2_avg</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>michalewicz5_min</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>michalewicz5_max</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>michalewicz5_avg</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>michalewicz10_min</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>michalewicz10_max</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>michalewicz10_avg</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>1604.2151453710769</v>
-      </c>
-      <c r="C2">
-        <v>1604.4064088293969</v>
-      </c>
-      <c r="D2">
-        <v>1604.323207365858</v>
-      </c>
-      <c r="E2">
-        <v>1609.072826405376</v>
-      </c>
-      <c r="F2">
-        <v>1609.273549113718</v>
-      </c>
-      <c r="G2">
-        <v>1609.2139252197969</v>
-      </c>
-      <c r="H2">
-        <v>1614.037333404325</v>
-      </c>
-      <c r="I2">
-        <v>1614.2428777358591</v>
-      </c>
-      <c r="J2">
-        <v>1614.141622615052</v>
-      </c>
-      <c r="K2">
-        <v>-2.3901223500972129</v>
-      </c>
-      <c r="L2">
-        <v>-1.4852416139904649</v>
-      </c>
-      <c r="M2">
-        <v>-1.810383832608635</v>
-      </c>
-      <c r="N2">
-        <v>-2.6124980441843562</v>
-      </c>
-      <c r="O2">
-        <v>-1.937902379731451</v>
-      </c>
-      <c r="P2">
-        <v>-2.4458520319716861</v>
-      </c>
-      <c r="Q2">
-        <v>-3.492400767409237</v>
-      </c>
-      <c r="R2">
-        <v>-2.6280361177463751</v>
-      </c>
-      <c r="S2">
-        <v>-3.149168371957118</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>config1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1602.384865960891</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1603.676324677815</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1603.198479394325</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1605.377339170382</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1607.347460820289</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1606.424090488236</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1612.054467825702</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1612.74409270858</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1612.454108873254</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.801295609653787</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.801294527408076</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.801295477557099</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-4.687385502187827</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-4.517761664197329</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-4.665013433147415</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-9.543214845317372</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-9.070340506075688</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-9.279952735395934</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>1604.1462225185339</v>
-      </c>
-      <c r="C3">
-        <v>1604.540265157166</v>
-      </c>
-      <c r="D3">
-        <v>1604.370090350978</v>
-      </c>
-      <c r="E3">
-        <v>1609.4222922623869</v>
-      </c>
-      <c r="F3">
-        <v>1609.681853975158</v>
-      </c>
-      <c r="G3">
-        <v>1609.5145204725441</v>
-      </c>
-      <c r="H3">
-        <v>1614.1505837057171</v>
-      </c>
-      <c r="I3">
-        <v>1614.423042560524</v>
-      </c>
-      <c r="J3">
-        <v>1614.2822484526109</v>
-      </c>
-      <c r="K3">
-        <v>-0.89976040775167099</v>
-      </c>
-      <c r="L3">
-        <v>-0.39860083825686909</v>
-      </c>
-      <c r="M3">
-        <v>-0.65618517197038129</v>
-      </c>
-      <c r="N3">
-        <v>-1.278441487769971</v>
-      </c>
-      <c r="O3">
-        <v>-0.32241176112121211</v>
-      </c>
-      <c r="P3">
-        <v>-0.84435867635056261</v>
-      </c>
-      <c r="Q3">
-        <v>-1.5243443627309929</v>
-      </c>
-      <c r="R3">
-        <v>-0.6182157250382232</v>
-      </c>
-      <c r="S3">
-        <v>-1.1133471659562271</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>config2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1602.660561564468</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1603.82608931014</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1603.150083315419</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1605.364338915168</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1606.340517345516</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1605.746519476806</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1611.032179914249</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1612.838814952954</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1612.058073835518</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1.801295609653787</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1.800595356921641</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1.80108517733094</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-4.687607409764297</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-4.517099652348598</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-4.652327392866932</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-9.505056397866509</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-8.73474536495301</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-9.098968615791247</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>config3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1602.62922340695</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1603.334025368437</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1603.017372220278</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1604.809913809345</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1606.069298806405</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1605.554775364565</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1611.450363520877</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1612.498805585083</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1611.962694362539</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-1.801295609653787</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-1.801294447834352</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.801295261107957</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-4.687509640514564</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-4.536734528342215</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-4.65556233607567</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-9.446830508714251</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-8.785035628430419</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-9.206331496203441</v>
       </c>
     </row>
   </sheetData>
